--- a/other/Таблица параметров.xlsx
+++ b/other/Таблица параметров.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
     <t>ПВЗЛ</t>
   </si>
@@ -192,9 +192,6 @@
     <t>было "Порог предупр. по КЧ"</t>
   </si>
   <si>
-    <t>4. Порог предупр.</t>
-  </si>
-  <si>
     <t>1,2 в 3-х концевой</t>
   </si>
   <si>
@@ -205,6 +202,12 @@
   </si>
   <si>
     <t>Под оптику отдельно прорисовать надо</t>
+  </si>
+  <si>
+    <t>4. Порог предупреждения</t>
+  </si>
+  <si>
+    <t>??? КЧ или РЗ</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,18 +352,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -399,6 +402,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -408,19 +432,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -730,7 +745,7 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,863 +756,803 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="7"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="27" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="O22" s="20"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
-      <c r="I27" t="s">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="13" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="24" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="6"/>
+      <c r="B47" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="3" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="12"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="12"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="12"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="12"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="12"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="12"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="12"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="12"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/other/Таблица параметров.xlsx
+++ b/other/Таблица параметров.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>ПВЗЛ</t>
   </si>
@@ -207,7 +207,7 @@
     <t>4. Порог предупреждения</t>
   </si>
   <si>
-    <t>??? КЧ или РЗ</t>
+    <t>пока нет</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -408,12 +408,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -431,12 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,7 +742,7 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,17 +766,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -800,8 +797,8 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -884,9 +881,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="30" t="s">
-        <v>62</v>
-      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="5"/>
       <c r="I10" s="19" t="s">
         <v>54</v>
@@ -954,17 +949,17 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="23" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="1"/>
@@ -986,8 +981,8 @@
       <c r="F19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -998,8 +993,8 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="11" t="s">
-        <v>51</v>
+      <c r="G20" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="H20" s="9"/>
     </row>
@@ -1018,8 +1013,8 @@
       <c r="F21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>51</v>
+      <c r="G21" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -1057,7 +1052,7 @@
       <c r="F23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="21" t="s">
         <v>55</v>
       </c>
       <c r="H23" s="10"/>
@@ -1110,7 +1105,9 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H27" s="10"/>
       <c r="I27" t="s">
         <v>57</v>
@@ -1155,7 +1152,9 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -1364,29 +1363,29 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="21" t="s">
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="H47" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1407,8 +1406,8 @@
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
@@ -1484,17 +1483,17 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21" t="s">
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="H57" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1515,8 +1514,8 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
@@ -1556,6 +1555,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B17:H17"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="G57:G58"/>
@@ -1567,11 +1571,6 @@
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="H47:H48"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToWidth="0" orientation="portrait" r:id="rId1"/>

--- a/other/Таблица параметров.xlsx
+++ b/other/Таблица параметров.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
     <t>ПВЗЛ</t>
   </si>
@@ -412,10 +412,10 @@
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,29 +754,29 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -797,8 +797,8 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -937,29 +937,29 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="1"/>
@@ -981,8 +981,8 @@
       <c r="F19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -993,9 +993,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="G20" s="11"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1382,10 +1380,10 @@
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
       <c r="F47" s="29"/>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1406,8 +1404,8 @@
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
@@ -1471,29 +1469,29 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23" t="s">
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="H57" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1514,8 +1512,8 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
@@ -1555,11 +1553,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B17:H17"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="G57:G58"/>
@@ -1571,6 +1564,11 @@
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="H47:H48"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToWidth="0" orientation="portrait" r:id="rId1"/>

--- a/other/Таблица параметров.xlsx
+++ b/other/Таблица параметров.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="132" windowWidth="22848" windowHeight="9372"/>
+    <workbookView xWindow="90" yWindow="135" windowWidth="22845" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>ПВЗЛ</t>
   </si>
@@ -208,6 +208,21 @@
   </si>
   <si>
     <t>пока нет</t>
+  </si>
+  <si>
+    <t>6. Команда ВЧ в ЦС</t>
+  </si>
+  <si>
+    <t>6. Трансляция ЦС</t>
+  </si>
+  <si>
+    <t>7. Блокированные команды ЦС</t>
+  </si>
+  <si>
+    <t>4. Трансляция ЦС</t>
+  </si>
+  <si>
+    <t>5. Блокированные команды ЦС</t>
   </si>
 </sst>
 </file>
@@ -352,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -410,6 +425,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -739,48 +766,48 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1"/>
-    <col min="2" max="8" width="8.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.44140625" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -797,10 +824,10 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -812,7 +839,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -824,7 +851,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -836,7 +863,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -848,7 +875,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -860,7 +887,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -872,7 +899,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -887,7 +914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -899,7 +926,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -911,7 +938,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -923,7 +950,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -935,36 +962,36 @@
       <c r="G14" s="12"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>4</v>
@@ -981,10 +1008,10 @@
       <c r="F19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -996,7 +1023,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1016,7 +1043,7 @@
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1035,7 +1062,7 @@
       <c r="H22" s="10"/>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -1058,7 +1085,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1070,7 +1097,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1082,7 +1109,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1121,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
@@ -1111,7 +1138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -1123,7 +1150,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -1141,7 +1168,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
@@ -1155,7 +1182,7 @@
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1166,7 +1193,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -1178,7 +1205,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
@@ -1190,7 +1217,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -1216,7 +1243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -1242,7 +1269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -1256,7 +1283,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -1270,7 +1297,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -1284,7 +1311,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -1298,7 +1325,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -1312,7 +1339,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -1326,7 +1353,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -1345,7 +1372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -1359,35 +1386,35 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="22" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>4</v>
@@ -1404,10 +1431,10 @@
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>37</v>
       </c>
@@ -1419,7 +1446,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
@@ -1431,7 +1458,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
@@ -1443,7 +1470,7 @@
       <c r="G51" s="12"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
@@ -1455,7 +1482,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>41</v>
       </c>
@@ -1467,96 +1494,186 @@
       <c r="G53" s="11"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="23" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="22" t="s">
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="H60" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="3" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="10"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
@@ -1581,7 +1698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1594,7 +1711,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
